--- a/clouds/clouds_azure_lab_team1.xlsx
+++ b/clouds/clouds_azure_lab_team1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="133">
   <si>
     <t>IT Tower</t>
   </si>
@@ -184,7 +184,7 @@
     <t>Caching</t>
   </si>
   <si>
-    <t>Azure Cach for Redis</t>
+    <t>Azure Cache for Redis</t>
   </si>
   <si>
     <t>Cache Node</t>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>Storage</t>
+  </si>
+  <si>
+    <t>Data Transfer</t>
   </si>
   <si>
     <t>Azure Data Box</t>
@@ -1679,24 +1682,24 @@
         <v>105</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -1716,24 +1719,24 @@
         <v>Cloud Services</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -1745,22 +1748,22 @@
         <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="I32" s="6"/>
     </row>
@@ -1773,22 +1776,22 @@
         <v>28</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I33" s="6"/>
     </row>
@@ -1801,23 +1804,23 @@
         <v>28</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35">
@@ -1829,23 +1832,23 @@
         <v>28</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36">
@@ -1854,26 +1857,26 @@
         <v>Cloud Services</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -1882,26 +1885,26 @@
         <v>Cloud Services</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
